--- a/Ключевые слова.xlsx
+++ b/Ключевые слова.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>is_job</t>
   </si>
   <si>
-    <t>keywords</t>
-  </si>
-  <si>
     <t>#job</t>
   </si>
   <si>
@@ -52,6 +49,126 @@
   </si>
   <si>
     <t>#персонал</t>
+  </si>
+  <si>
+    <t>hashtags</t>
+  </si>
+  <si>
+    <t>keywords1</t>
+  </si>
+  <si>
+    <t>keywords2</t>
+  </si>
+  <si>
+    <t>оклад</t>
+  </si>
+  <si>
+    <t>обязанност</t>
+  </si>
+  <si>
+    <t>ваканс</t>
+  </si>
+  <si>
+    <t>работ</t>
+  </si>
+  <si>
+    <t>опыт</t>
+  </si>
+  <si>
+    <t>специал</t>
+  </si>
+  <si>
+    <t>фул-тайм</t>
+  </si>
+  <si>
+    <t>фул тайм</t>
+  </si>
+  <si>
+    <t>парт-тайм</t>
+  </si>
+  <si>
+    <t>парт тайм</t>
+  </si>
+  <si>
+    <t>фултайм</t>
+  </si>
+  <si>
+    <t>парттайм</t>
+  </si>
+  <si>
+    <t>full time</t>
+  </si>
+  <si>
+    <t>part-time</t>
+  </si>
+  <si>
+    <t>part time</t>
+  </si>
+  <si>
+    <t>full-time</t>
+  </si>
+  <si>
+    <t>vacanc</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>резюме</t>
+  </si>
+  <si>
+    <t>minus_words</t>
+  </si>
+  <si>
+    <t>требования</t>
+  </si>
+  <si>
+    <t>условия</t>
+  </si>
+  <si>
+    <t>карьерн</t>
+  </si>
+  <si>
+    <t>время работы</t>
+  </si>
+  <si>
+    <t>часы работы</t>
+  </si>
+  <si>
+    <t>все виды работ</t>
+  </si>
+  <si>
+    <t>ручная работа</t>
+  </si>
+  <si>
+    <t>работа органов</t>
+  </si>
+  <si>
+    <t>работа надпочечников</t>
+  </si>
+  <si>
+    <t>работа желез</t>
+  </si>
+  <si>
+    <t>после работы</t>
+  </si>
+  <si>
+    <t>обработан</t>
+  </si>
+  <si>
+    <t>примеры работ</t>
+  </si>
+  <si>
+    <t>подработк</t>
+  </si>
+  <si>
+    <t>стажировк</t>
+  </si>
+  <si>
+    <t>практик</t>
+  </si>
+  <si>
+    <t>мышц</t>
   </si>
 </sst>
 </file>
@@ -401,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,64 +530,206 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
